--- a/ZZZ_my_folder/DataBase_Structure_CV.xlsx
+++ b/ZZZ_my_folder/DataBase_Structure_CV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomas_Dev\WorldGT\01_cv_classic_php\ZZZ_my_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8916A594-0771-4672-9F3B-DEC1CB0D30C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C00A9FE-EF38-4156-A909-867EC525F5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="182">
   <si>
     <t>languages</t>
   </si>
@@ -177,12 +177,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>alternance ou continue</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>format d'alternance</t>
   </si>
   <si>
@@ -225,21 +216,9 @@
     <t>formation_type</t>
   </si>
   <si>
-    <t>IT / Sport / Commercial / Internationnal ???????????</t>
-  </si>
-  <si>
     <t>(vehicles)</t>
   </si>
   <si>
-    <t>plusieurs choix possible</t>
-  </si>
-  <si>
-    <t>selection par query sql filtre pour pas qu'elles appraraissent par ordre de pertinence choisie mais pas 2 fois</t>
-  </si>
-  <si>
-    <t>mis JSON mais je sais pas pk… Array parait suffisant</t>
-  </si>
-  <si>
     <t>back or front?</t>
   </si>
   <si>
@@ -264,24 +243,6 @@
     <t>(diplômes)</t>
   </si>
   <si>
-    <t>exp_tags</t>
-  </si>
-  <si>
-    <t>id_tags</t>
-  </si>
-  <si>
-    <t>Stack (environnement)</t>
-  </si>
-  <si>
-    <t>Tache parente</t>
-  </si>
-  <si>
-    <t>sous tache</t>
-  </si>
-  <si>
-    <t>table de liaison?</t>
-  </si>
-  <si>
     <t>abr_degree</t>
   </si>
   <si>
@@ -306,9 +267,6 @@
     <t>link_degree</t>
   </si>
   <si>
-    <t>city_link_info</t>
-  </si>
-  <si>
     <t>site_name</t>
   </si>
   <si>
@@ -324,12 +282,6 @@
     <t>id_soft_skill</t>
   </si>
   <si>
-    <t>tech_skills_tags</t>
-  </si>
-  <si>
-    <t>soft_skills_tags</t>
-  </si>
-  <si>
     <t>s_skill_name</t>
   </si>
   <si>
@@ -402,51 +354,12 @@
     <t>id_exp_dev_skill</t>
   </si>
   <si>
-    <t>id_exp_tag</t>
-  </si>
-  <si>
-    <t>id_order</t>
-  </si>
-  <si>
     <t>cv_name (tag_name?)</t>
   </si>
   <si>
-    <t>order_dev_skills</t>
-  </si>
-  <si>
-    <t>order_hobbies</t>
-  </si>
-  <si>
-    <t>order_languages</t>
-  </si>
-  <si>
-    <t>order_values</t>
-  </si>
-  <si>
-    <t>id_values</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
-    <t>values_name</t>
-  </si>
-  <si>
-    <t>values_description</t>
-  </si>
-  <si>
-    <t>order_experiences</t>
-  </si>
-  <si>
-    <t>order_soft_skills</t>
-  </si>
-  <si>
-    <t>order_tech_skills</t>
-  </si>
-  <si>
-    <t>déjà table de jointure entre tech skills et tags</t>
-  </si>
-  <si>
     <t>hobbies_values</t>
   </si>
   <si>
@@ -471,13 +384,193 @@
     <t>cv</t>
   </si>
   <si>
-    <t>(tags)</t>
-  </si>
-  <si>
     <t>id_hobbie_value</t>
   </si>
   <si>
     <t>id_value</t>
+  </si>
+  <si>
+    <t>missions du métier (tout dedans séparés par des ; et des / ou faire une nouvelle table des missions et sous-missions)</t>
+  </si>
+  <si>
+    <t>Liaison Stack (Tech_skills)</t>
+  </si>
+  <si>
+    <t>Liaison Missions</t>
+  </si>
+  <si>
+    <t>job_missions</t>
+  </si>
+  <si>
+    <t>cv_soft_skills</t>
+  </si>
+  <si>
+    <t>id_cv_tech_skills</t>
+  </si>
+  <si>
+    <t>Liaison CV</t>
+  </si>
+  <si>
+    <t>cv_degrees</t>
+  </si>
+  <si>
+    <t>cv_hobbies</t>
+  </si>
+  <si>
+    <t>id_cv</t>
+  </si>
+  <si>
+    <t>cv_exp</t>
+  </si>
+  <si>
+    <t>id_cv_exp</t>
+  </si>
+  <si>
+    <t>cv_dev_skills</t>
+  </si>
+  <si>
+    <t>id_cv_soft_skill</t>
+  </si>
+  <si>
+    <t>id_cv_dev_skill</t>
+  </si>
+  <si>
+    <t>id_cv_tech_skill</t>
+  </si>
+  <si>
+    <t>cv_tech_skill</t>
+  </si>
+  <si>
+    <t>cv_values</t>
+  </si>
+  <si>
+    <t>id_cv_value</t>
+  </si>
+  <si>
+    <t>value_name</t>
+  </si>
+  <si>
+    <t>value_description</t>
+  </si>
+  <si>
+    <t>id_cv_school</t>
+  </si>
+  <si>
+    <t>id_school</t>
+  </si>
+  <si>
+    <t>cv_schools</t>
+  </si>
+  <si>
+    <t>order_degree</t>
+  </si>
+  <si>
+    <t>order_hobby</t>
+  </si>
+  <si>
+    <t>order_school</t>
+  </si>
+  <si>
+    <t>order_exp</t>
+  </si>
+  <si>
+    <t>order_value</t>
+  </si>
+  <si>
+    <t>order_tech_skill</t>
+  </si>
+  <si>
+    <t>order_dev_skill</t>
+  </si>
+  <si>
+    <t>order_soft_skill</t>
+  </si>
+  <si>
+    <t>cv_languages</t>
+  </si>
+  <si>
+    <t>id_cv_language</t>
+  </si>
+  <si>
+    <t>order_language</t>
+  </si>
+  <si>
+    <t>exp_missions</t>
+  </si>
+  <si>
+    <t>id_exp_mission</t>
+  </si>
+  <si>
+    <t>id_mission</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>link pro ou perso</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>subtask</t>
+  </si>
+  <si>
+    <t>exp_links</t>
+  </si>
+  <si>
+    <t>id_exp_link</t>
+  </si>
+  <si>
+    <t>exp_link</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>(job)</t>
+  </si>
+  <si>
+    <t>mission_tasks</t>
+  </si>
+  <si>
+    <t>id_mission_task</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>category_order</t>
+  </si>
+  <si>
+    <t>cv_categories</t>
+  </si>
+  <si>
+    <t>id_cv_category</t>
+  </si>
+  <si>
+    <t>id_category</t>
+  </si>
+  <si>
+    <t>order_cat</t>
+  </si>
+  <si>
+    <t>degrees, hobbies, languages, school, exp, etc…</t>
+  </si>
+  <si>
+    <t>id_cv_hobby</t>
+  </si>
+  <si>
+    <t>link_info</t>
+  </si>
+  <si>
+    <t>formation_format</t>
   </si>
 </sst>
 </file>
@@ -546,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +667,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC95BE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -714,9 +843,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,37 +855,76 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,6 +933,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC95BE7"/>
+      <color rgb="FFA725CF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1042,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB55"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,47 +1236,66 @@
     <col min="13" max="13" width="3.08984375" style="13" customWidth="1"/>
     <col min="14" max="14" width="16.81640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.26953125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="3.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.81640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="14.26953125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="3.08984375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7265625" style="1"/>
-    <col min="22" max="22" width="2.08984375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="1"/>
-    <col min="24" max="24" width="10.81640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7265625" style="13"/>
-    <col min="26" max="16384" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="3.08984375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="3.08984375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.81640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.08984375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" style="1"/>
+    <col min="27" max="27" width="10.81640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7265625" style="13"/>
+    <col min="29" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12"/>
       <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="H1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="22"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="W1" s="12">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="N1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1113,32 +1303,49 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Q2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="12">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1146,32 +1353,49 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="I3" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T3" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="12">
+        <v>3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1179,37 +1403,55 @@
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="12">
+      <c r="S4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="T4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="12">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1217,19 +1459,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -1237,64 +1479,97 @@
       <c r="M5" s="12">
         <v>6</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="12">
+      <c r="S5" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="12">
+        <v>5</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="E6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="8" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="12">
+      <c r="S6" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W6" s="12">
+        <v>6</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>86</v>
+      <c r="H7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>47</v>
@@ -1303,32 +1578,43 @@
         <v>11</v>
       </c>
       <c r="M7" s="12"/>
-      <c r="N7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12">
+        <v>7</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="36"/>
+      <c r="E8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="H8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="8" t="s">
         <v>48</v>
       </c>
@@ -1336,68 +1622,114 @@
         <v>11</v>
       </c>
       <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="8" t="s">
-        <v>90</v>
+      <c r="N8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" s="12">
+        <v>8</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M9" s="12">
         <v>7</v>
       </c>
-      <c r="N9" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+      <c r="N9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="T9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="15"/>
+      <c r="W9" s="12">
+        <v>9</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
+      <c r="C10" s="37"/>
+      <c r="E10" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="12">
         <v>8</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="12">
+        <v>10</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>30</v>
@@ -1405,21 +1737,21 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>18</v>
@@ -1427,147 +1759,208 @@
       <c r="M11" s="12">
         <v>9</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="12">
+        <v>11</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T12" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="H13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="K13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="15"/>
-      <c r="N13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="K13" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="N13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>91</v>
+      <c r="D14" s="12">
+        <v>4</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>120</v>
+      <c r="H14" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="T14" s="30"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>92</v>
+      <c r="E15" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>121</v>
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" s="30"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>93</v>
+      <c r="E16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>36</v>
@@ -1575,610 +1968,632 @@
       <c r="L16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="S16" s="12"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N17" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S17" s="12"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="19" t="s">
+      <c r="N16" s="30"/>
+      <c r="Q16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="T16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U16" s="15"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="Q17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B18" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="H18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="K18" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="N18" s="8" t="s">
-        <v>110</v>
+      <c r="C18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="H18" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="K18" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="N18" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>33</v>
+      <c r="E19" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T19" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>39</v>
+      <c r="E20" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>46</v>
+        <v>16</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>145</v>
+      <c r="E21" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="N22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="15"/>
+      <c r="Q22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="T22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="26"/>
-      <c r="N23" s="6" t="s">
-        <v>132</v>
+      <c r="N23" s="31" t="s">
+        <v>106</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="N24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="N25" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" s="12"/>
+    </row>
+    <row r="26" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="E27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="15"/>
+      <c r="Q27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="E28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="H24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="F31" s="20"/>
+      <c r="N31" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="S31" s="12">
         <v>11</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="12">
+      <c r="T31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="E33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="15"/>
+      <c r="Q33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="E25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="34" t="s">
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="12">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="12">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J28" s="12">
-        <v>5</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>4</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="18"/>
-      <c r="K29" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="K30" s="34" t="s">
+      <c r="O35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="E38" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="E39" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="E40" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="26"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="12"/>
-      <c r="N32" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="26"/>
-      <c r="N33" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="12">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="O34" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="O37" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N38" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N39" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="O39" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12">
-        <v>15</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N42" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O42" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N43" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="O43" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N44" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N45" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N46" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N47" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="N48" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="O48" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="R48" s="1"/>
-      <c r="W48" s="13"/>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="N49" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="O49" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P49" s="3"/>
-      <c r="R49" s="1"/>
-      <c r="W49" s="13"/>
-      <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="N50" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P50" s="3"/>
-      <c r="R50" s="1"/>
-      <c r="W50" s="13"/>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="14:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N51" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="O51" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="14:25" x14ac:dyDescent="0.35">
-      <c r="O55" s="1"/>
+      <c r="O40" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="5:28" x14ac:dyDescent="0.35">
+      <c r="U48" s="1"/>
+      <c r="Z48" s="13"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="U49" s="1"/>
+      <c r="Z49" s="13"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="U50" s="1"/>
+      <c r="Z50" s="13"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="52" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="R54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
